--- a/waste-mario/Paths.xlsx
+++ b/waste-mario/Paths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\Waste-MARIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\Waste-MARIO\DWMRIO\waste-mario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC8B18-C026-45D2-9FD7-D643B58ABF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA65F59-FEC7-4844-B291-4FF772CA94A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24468" yWindow="-108" windowWidth="24792" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>LR</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Documents\GitHub\Waste-MARIO\DWMRIO\mario</t>
+  </si>
+  <si>
+    <t>MARIO</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,25 +400,33 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/waste-mario/Paths.xlsx
+++ b/waste-mario/Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\Waste-MARIO\DWMRIO\waste-mario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA65F59-FEC7-4844-B291-4FF772CA94A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970F8C04-3D5B-420A-8ECB-F630FB915430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Add sectors non waste</t>
   </si>
   <si>
-    <t>C:\Users\loren\Documents\GitHub\MARIO Organization\Waste-MARIO\Add sectors\Add_non_waste.xlsx</t>
-  </si>
-  <si>
     <t>C:\Users\loren\OneDrive - Politecnico di Milano\Documenti\Tesi di laurea\2022-23_WasteMARIO\dMRWIO model\MARIO\Database</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>MARIO</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Documents\GitHub\Waste-MARIO\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +400,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -419,15 +419,15 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/waste-mario/Paths.xlsx
+++ b/waste-mario/Paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\Waste-MARIO\DWMRIO\waste-mario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970F8C04-3D5B-420A-8ECB-F630FB915430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A04ED4-B0D1-42CD-9FAA-008362CC4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="2020" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>LR</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>C:\Users\loren\Documents\GitHub\Waste-MARIO\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\mario</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\IOT_2011_ixi.zip</t>
   </si>
 </sst>
 </file>
@@ -378,16 +387,16 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -398,31 +407,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>

--- a/waste-mario/Paths.xlsx
+++ b/waste-mario/Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A04ED4-B0D1-42CD-9FAA-008362CC4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0AD231-2E17-44FF-8FC5-A63CB3C5C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="2020" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="1590" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\IOT_2011_ixi.zip</t>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\IOT</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/waste-mario/Paths.xlsx
+++ b/waste-mario/Paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/DWMRIO/waste-mario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0AD231-2E17-44FF-8FC5-A63CB3C5C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8A0AD231-2E17-44FF-8FC5-A63CB3C5C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61AC564C-64B1-4A82-957A-50BB075ECCC0}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1590" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5150" yWindow="3280" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>LR</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\IOT</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\DWMRIO\mario</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Desktop\TESI\IOT</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Desktop\TESI\2022-23_WasteMARIO\dMRWIO model\MARIO\Database</t>
   </si>
 </sst>
 </file>
@@ -387,7 +399,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,6 +426,9 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -425,6 +440,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
@@ -436,6 +454,9 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -446,6 +467,9 @@
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/waste-mario/Paths.xlsx
+++ b/waste-mario/Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0AD231-2E17-44FF-8FC5-A63CB3C5C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055151C4-4B4F-41DD-BA7F-5AD482257DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1590" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-290" yWindow="1330" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>LR</t>
   </si>
@@ -60,13 +60,19 @@
     <t>C:\Users\loren\Documents\GitHub\Waste-MARIO\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\mario</t>
-  </si>
-  <si>
     <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
   </si>
   <si>
     <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\IOT</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO</t>
+  </si>
+  <si>
+    <t>Region aggregation</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\Region aggregation\Region.xlsx</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -426,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -437,7 +443,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -446,6 +452,14 @@
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/waste-mario/Paths.xlsx
+++ b/waste-mario/Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055151C4-4B4F-41DD-BA7F-5AD482257DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E78A0-5BCC-4A5C-A6F3-E8F8729D7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-290" yWindow="1330" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>LR</t>
   </si>
@@ -42,9 +42,6 @@
     <t>CF</t>
   </si>
   <si>
-    <t>Add sectors non waste</t>
-  </si>
-  <si>
     <t>C:\Users\loren\OneDrive - Politecnico di Milano\Documenti\Tesi di laurea\2022-23_WasteMARIO\dMRWIO model\MARIO\Database</t>
   </si>
   <si>
@@ -57,12 +54,6 @@
     <t>MARIO</t>
   </si>
   <si>
-    <t>C:\Users\loren\Documents\GitHub\Waste-MARIO\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\Add sectors\Add_non_waste.xlsx</t>
-  </si>
-  <si>
     <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\IOT</t>
   </si>
   <si>
@@ -73,6 +64,27 @@
   </si>
   <si>
     <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\Region aggregation\Region.xlsx</t>
+  </si>
+  <si>
+    <t>New sectors</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\New sectors\New_sectors.xlsx</t>
+  </si>
+  <si>
+    <t>Waste sectors</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\New sectors\Waste_sectors.xlsx</t>
+  </si>
+  <si>
+    <t>Type of waste</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\New sectors\Type_waste.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\carol\OneDrive\Documenti\OneDrive - Politecnico di Milano\2022-23_WasteMARIO\dMRWIO model\MARIO\Database</t>
   </si>
 </sst>
 </file>
@@ -390,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,13 +427,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -432,34 +444,50 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/waste-mario/Paths.xlsx
+++ b/waste-mario/Paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\UNI\MAGISTRALE\TESI\DWMRIO\waste-mario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/DWMRIO/waste-mario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E78A0-5BCC-4A5C-A6F3-E8F8729D7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D10E78A0-5BCC-4A5C-A6F3-E8F8729D7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAB9A803-43F8-49E0-8552-12FB5A6C3730}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>LR</t>
   </si>
@@ -85,6 +85,27 @@
   </si>
   <si>
     <t>C:\Users\carol\OneDrive\Documenti\OneDrive - Politecnico di Milano\2022-23_WasteMARIO\dMRWIO model\MARIO\Database</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\DWMRIO\mario</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Desktop\TESI\IOT</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Desktop\TESI\2022-23_WasteMARIO\dMRWIO model\MARIO\Database</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\DWMRIO\waste-mario\New sectors\New_sectors.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\DWMRIO\waste-mario\New sectors\Waste_sectors.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\DWMRIO\waste-mario\New sectors\Type_waste.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\DWMRIO\waste-mario\Region aggregation\Region.xlsx</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,6 +453,9 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -443,6 +467,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -454,6 +481,9 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
@@ -462,6 +492,9 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -470,6 +503,9 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -478,6 +514,9 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
@@ -485,6 +524,9 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
